--- a/Stored Procedures - Test Cases.xlsx
+++ b/Stored Procedures - Test Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>TC ID</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Title/Description</t>
   </si>
   <si>
-    <t>Steps to reproduce it</t>
-  </si>
-  <si>
     <t>Test Query</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>TC 005</t>
-  </si>
-  <si>
-    <t>TC 006</t>
   </si>
   <si>
     <t>P1</t>
@@ -81,22 +75,10 @@
     <t>SELECT * FROM customers;</t>
   </si>
   <si>
-    <t>CALL SelectAllCustomers();</t>
-  </si>
-  <si>
     <t>Check Stored Procedure are exists in database</t>
   </si>
   <si>
-    <t>Check Stored Procedure "SelectAllCustomers()" display all records from the "Customer" table</t>
-  </si>
-  <si>
-    <t>Check Stored Procedure "SelectAllCustomersByCity" by passing CityName as parameter</t>
-  </si>
-  <si>
     <t>CALL SelectAllCustomersByCity('Singapore');</t>
-  </si>
-  <si>
-    <t>Check Stored Procedure "SelectAllCustomersByCityAndPin" by passing input parameters 'cityname' and 'pincode'</t>
   </si>
   <si>
     <t>Check Stored Procedure "get_order_by_cust" by passing input parameter "custID"</t>
@@ -141,11 +123,6 @@
 FROM customers WHERE customerNumber = 112;</t>
   </si>
   <si>
-    <t>ER1: 2-day-shipping
-ER2: 3-day-shipping
-ER3 5-day-shipping</t>
-  </si>
-  <si>
     <t>CustID: 112
 CustID: 260
 CustID: 353</t>
@@ -164,9 +141,6 @@
     <t>Display Customers from a particular City with a particular Postal Code from the "Customers" table</t>
   </si>
   <si>
-    <t>City Name: singapore</t>
-  </si>
-  <si>
     <t>Display Customers from a particular City from the "Customers" table</t>
   </si>
   <si>
@@ -174,6 +148,103 @@
   </si>
   <si>
     <t>Stored Procedures names should be displayed in the list</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "selectAllCustomers()" display all records from the "Customer" table</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "selectAllCustomersByCity" by passing CityName as parameter</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "selectAllCustomersByCityAndPin" by passing input parameters 'cityname' and 'pincode'</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "selectAllEmployees()" display all records from the "Employees" table</t>
+  </si>
+  <si>
+    <t>CALL selectAllEmployees();</t>
+  </si>
+  <si>
+    <t>CALL selectAllCustomers();</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees;</t>
+  </si>
+  <si>
+    <t>Display all records from the "Employees" table</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "selectAllEmployeesByFirstName" by passing firstName as parameter</t>
+  </si>
+  <si>
+    <t>CALL selectAllEmployeesByFirstName('Leslie');</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees WHERE firstName = 'Leslie';</t>
+  </si>
+  <si>
+    <t>First Name: Leslie</t>
+  </si>
+  <si>
+    <t>City Name: Singapore</t>
+  </si>
+  <si>
+    <t>Display Employees with a particular First Name from the "Employees" table</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "selectAllEmployeesByFirstNameAndOfficeCode" by passing input parameters 'FirstName' and 'OfficeCode'</t>
+  </si>
+  <si>
+    <t>CALL selectAllEmployeesByFirstNameAndOfficeCode('Leslie', '1');</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees WHERE firstName = 'Leslie' AND officeCode = '1';</t>
+  </si>
+  <si>
+    <t>First Name: Leslie
+Office Code: 1</t>
+  </si>
+  <si>
+    <t>Display Employees with a particular First Name and a particular Office Code from the "Employees" table</t>
+  </si>
+  <si>
+    <t>TC 007</t>
+  </si>
+  <si>
+    <t>TC 008</t>
+  </si>
+  <si>
+    <t>TC 009</t>
+  </si>
+  <si>
+    <t>TC 010</t>
+  </si>
+  <si>
+    <t>Check Stored Procedure "getNumberOfVehiclesByProductScale" by passing input parameter "productScale"</t>
+  </si>
+  <si>
+    <t>CALL getNumberOfVehiclesByProductScale('1:18', @MotorCycles, @Planes, @Ships, @Trains);</t>
+  </si>
+  <si>
+    <t>SELECT @MotorCycles, @Planes, @Ships, @Trains;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pScale: 1:18
+</t>
+  </si>
+  <si>
+    <t>Accepts product scale number and returns the total number of products that meet the conditions.</t>
+  </si>
+  <si>
+    <t>Result: 2-day-shipping
+Result: 3-day-shipping
+Result: 5-day-shipping</t>
+  </si>
+  <si>
+    <t>Steps</t>
   </si>
 </sst>
 </file>
@@ -238,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -257,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,21 +636,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="54.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -588,200 +664,299 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
